--- a/biology/Zoologie/Cimex_vicarius/Cimex_vicarius.xlsx
+++ b/biology/Zoologie/Cimex_vicarius/Cimex_vicarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cimex vicarius est une espèce d'Insectes hétéroptères (punaises) de la famille des Cimicidae. Elle a été décrite et classée dans le genre Oeciacus sous le protonyme de Oeciacus vicarius par Géza Horváth en 1912.
-Cette punaise est originaire d'Amérique et est fortement envahissante. Elle se reproduit sur les Hirondelles rustiques et les Hirondelles à front blanc. Une étude menée par Kopachena et al. en 2007[1] dans le nord-est du Texas a montré qu'elle a infecté 74,1 % des colonnies des Hirondelles rustiques ainsi que 62,2 % des nids qui ont été étudiés[2].
+Cette punaise est originaire d'Amérique et est fortement envahissante. Elle se reproduit sur les Hirondelles rustiques et les Hirondelles à front blanc. Une étude menée par Kopachena et al. en 2007 dans le nord-est du Texas a montré qu'elle a infecté 74,1 % des colonnies des Hirondelles rustiques ainsi que 62,2 % des nids qui ont été étudiés.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,12 +553,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cimex vicarius (Horváth, 1912)[3].
-L'espèce a été initialement classée dans le genre Oeciacus sous le protonyme Oeciacus vicarius Horváth, 1912[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : punaise de l'hirondelle[3].
-Cimex vicarius a pour synonyme[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cimex vicarius (Horváth, 1912).
+L'espèce a été initialement classée dans le genre Oeciacus sous le protonyme Oeciacus vicarius Horváth, 1912.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : punaise de l'hirondelle.
+Cimex vicarius a pour synonyme :
 Oeciacus vicarius Horváth, 1912</t>
         </is>
       </c>
